--- a/Phieu van dap PHP.xlsx
+++ b/Phieu van dap PHP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058B61F-135C-42A4-A576-4F6C2C9115A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D34487-6F94-4815-A3DE-94A15C87F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>Hồ Diên Lợi</t>
-  </si>
-  <si>
-    <t>Ngày:……………………………………..</t>
   </si>
   <si>
     <t>Xóa khỏi CSDL và menu nếu có</t>
@@ -404,10 +401,13 @@
     <t>Họ tên: Trương Sỹ Hoàng</t>
   </si>
   <si>
-    <t>Học kỳ………Năm học:2022</t>
-  </si>
-  <si>
-    <t>Điện thoại:0918146697</t>
+    <t>Điện thoại: 0918146697</t>
+  </si>
+  <si>
+    <t>Ngày: 10/01/2023</t>
+  </si>
+  <si>
+    <t>Học kỳ………Năm học: 2022</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,159 +609,164 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,123 +1048,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="8.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="17" customWidth="1"/>
     <col min="11" max="11" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="20" t="s">
+      <c r="B5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="68" t="str">
         <f>SUM(J13:J19,J22:J23,J26:J30,J33:J35,J38:J40,J43:J46,J49:J51,J54:J55,J58:J59,J62:J64,J67:J69,J72:J73,J76:J78,J81:J83,J87:J89,J92:J100,J103:J111,J114:J122,J125:J128,J131:J139,J142:J150,J153:J161,J164:J172,J175:J183,J186:J194,J197:J205,J208:J215)&amp;"/100"</f>
-        <v>74,25/100</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+        <v>96/100</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1186,18 +1193,18 @@
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1206,18 +1213,18 @@
       <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="25">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="47">
         <v>1.5</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="10">
         <v>1.5</v>
       </c>
@@ -1226,18 +1233,18 @@
       <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="26"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="48"/>
       <c r="J14" s="10">
         <v>0.5</v>
       </c>
@@ -1246,18 +1253,18 @@
       <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="26"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="48"/>
       <c r="J15" s="10">
         <v>0.5</v>
       </c>
@@ -1266,18 +1273,18 @@
       <c r="A16" s="10">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="26"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="48"/>
       <c r="J16" s="10">
         <v>0.5</v>
       </c>
@@ -1286,18 +1293,18 @@
       <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="26"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="48"/>
       <c r="J17" s="10">
         <v>0.5</v>
       </c>
@@ -1306,18 +1313,18 @@
       <c r="A18" s="10">
         <v>6</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="26"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="48"/>
       <c r="J18" s="10">
         <v>0.5</v>
       </c>
@@ -1326,18 +1333,18 @@
       <c r="A19" s="10">
         <v>7</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="26"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="47">
+        <v>1</v>
+      </c>
+      <c r="I19" s="48"/>
       <c r="J19" s="10">
         <v>1</v>
       </c>
@@ -1360,18 +1367,18 @@
       <c r="A21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="23" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="11" t="s">
         <v>6</v>
       </c>
@@ -1380,18 +1387,18 @@
       <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="25">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="47">
         <v>1.5</v>
       </c>
-      <c r="I22" s="26"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="10">
         <v>1.5</v>
       </c>
@@ -1400,18 +1407,18 @@
       <c r="A23" s="10">
         <v>2</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="26"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="47">
+        <v>1</v>
+      </c>
+      <c r="I23" s="48"/>
       <c r="J23" s="10">
         <v>1</v>
       </c>
@@ -1434,18 +1441,18 @@
       <c r="A25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="23" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="24"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="11" t="s">
         <v>6</v>
       </c>
@@ -1454,18 +1461,18 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="26"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="48"/>
       <c r="J26" s="10">
         <v>0.5</v>
       </c>
@@ -1474,18 +1481,18 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="26"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="48"/>
       <c r="J27" s="10">
         <v>0.5</v>
       </c>
@@ -1494,18 +1501,18 @@
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="26"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="48"/>
       <c r="J28" s="10">
         <v>0.5</v>
       </c>
@@ -1514,18 +1521,18 @@
       <c r="A29" s="10">
         <v>4</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="26"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="48"/>
       <c r="J29" s="10">
         <v>0.5</v>
       </c>
@@ -1534,18 +1541,18 @@
       <c r="A30" s="10">
         <v>5</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="26"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="48"/>
       <c r="J30" s="10">
         <v>0.5</v>
       </c>
@@ -1568,18 +1575,18 @@
       <c r="A32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="23" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="11" t="s">
         <v>6</v>
       </c>
@@ -1588,18 +1595,18 @@
       <c r="A33" s="10">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="26"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="48"/>
       <c r="J33" s="10">
         <v>0.5</v>
       </c>
@@ -1608,36 +1615,38 @@
       <c r="A34" s="10">
         <v>2</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="25">
-        <v>1</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="10"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="47">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="26"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="47">
+        <v>1</v>
+      </c>
+      <c r="I35" s="48"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -1658,18 +1667,18 @@
       <c r="A37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="23" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="24"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="11" t="s">
         <v>6</v>
       </c>
@@ -1678,18 +1687,18 @@
       <c r="A38" s="10">
         <v>1</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="26"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="48"/>
       <c r="J38" s="10">
         <v>0.5</v>
       </c>
@@ -1698,36 +1707,38 @@
       <c r="A39" s="10">
         <v>2</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="10"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="47">
+        <v>1</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>3</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="25">
-        <v>1</v>
-      </c>
-      <c r="I40" s="26"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="47">
+        <v>1</v>
+      </c>
+      <c r="I40" s="48"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -1745,22 +1756,22 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="14" t="s">
+      <c r="I42" s="66"/>
+      <c r="J42" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1768,18 +1779,18 @@
       <c r="A43" s="10">
         <v>1</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="25">
-        <v>1</v>
-      </c>
-      <c r="I43" s="26"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="47">
+        <v>1</v>
+      </c>
+      <c r="I43" s="48"/>
       <c r="J43" s="10">
         <v>1</v>
       </c>
@@ -1788,18 +1799,18 @@
       <c r="A44" s="10">
         <v>2</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="25">
-        <v>1</v>
-      </c>
-      <c r="I44" s="26"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="47">
+        <v>1</v>
+      </c>
+      <c r="I44" s="48"/>
       <c r="J44" s="10">
         <v>1</v>
       </c>
@@ -1808,37 +1819,39 @@
       <c r="A45" s="10">
         <v>3</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="26"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="48"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>4</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="10"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
@@ -1858,18 +1871,18 @@
       <c r="A48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="23" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="61"/>
       <c r="J48" s="11" t="s">
         <v>6</v>
       </c>
@@ -1878,18 +1891,18 @@
       <c r="A49" s="10">
         <v>1</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="26"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="48"/>
       <c r="J49" s="10">
         <v>0.5</v>
       </c>
@@ -1898,36 +1911,38 @@
       <c r="A50" s="10">
         <v>2</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="25">
-        <v>1</v>
-      </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="10"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="47">
+        <v>1</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>3</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="25">
-        <v>1</v>
-      </c>
-      <c r="I51" s="26"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="47">
+        <v>1</v>
+      </c>
+      <c r="I51" s="48"/>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -1948,18 +1963,18 @@
       <c r="A53" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="23" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="11" t="s">
         <v>6</v>
       </c>
@@ -1968,18 +1983,18 @@
       <c r="A54" s="10">
         <v>1</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="25">
-        <v>1</v>
-      </c>
-      <c r="I54" s="26"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="47">
+        <v>1</v>
+      </c>
+      <c r="I54" s="48"/>
       <c r="J54" s="10">
         <v>1</v>
       </c>
@@ -1988,19 +2003,21 @@
       <c r="A55" s="10">
         <v>2</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="25">
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="47">
         <v>1.5</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="10"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
@@ -2020,18 +2037,18 @@
       <c r="A57" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="23" t="s">
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="61"/>
       <c r="J57" s="11" t="s">
         <v>6</v>
       </c>
@@ -2040,18 +2057,18 @@
       <c r="A58" s="10">
         <v>1</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="25">
-        <v>1</v>
-      </c>
-      <c r="I58" s="26"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="47">
+        <v>1</v>
+      </c>
+      <c r="I58" s="48"/>
       <c r="J58" s="10">
         <v>1</v>
       </c>
@@ -2060,19 +2077,21 @@
       <c r="A59" s="10">
         <v>2</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="25">
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="47">
         <v>1.5</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="10"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
@@ -2092,18 +2111,18 @@
       <c r="A61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="23" t="s">
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="I61" s="61"/>
       <c r="J61" s="11" t="s">
         <v>6</v>
       </c>
@@ -2112,18 +2131,18 @@
       <c r="A62" s="10">
         <v>1</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="25">
-        <v>1</v>
-      </c>
-      <c r="I62" s="26"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="47">
+        <v>1</v>
+      </c>
+      <c r="I62" s="48"/>
       <c r="J62" s="10">
         <v>1</v>
       </c>
@@ -2132,18 +2151,18 @@
       <c r="A63" s="10">
         <v>2</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="25">
-        <v>1</v>
-      </c>
-      <c r="I63" s="26"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="47">
+        <v>1</v>
+      </c>
+      <c r="I63" s="48"/>
       <c r="J63" s="10">
         <v>1</v>
       </c>
@@ -2152,18 +2171,18 @@
       <c r="A64" s="10">
         <v>3</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="26"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="48"/>
       <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -2184,18 +2203,18 @@
       <c r="A66" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="23" t="s">
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="24"/>
+      <c r="I66" s="61"/>
       <c r="J66" s="11" t="s">
         <v>6</v>
       </c>
@@ -2204,55 +2223,61 @@
       <c r="A67" s="10">
         <v>1</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="25">
-        <v>1</v>
-      </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="10"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="47">
+        <v>1</v>
+      </c>
+      <c r="I67" s="48"/>
+      <c r="J67" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>2</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="25">
-        <v>1</v>
-      </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="10"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="47">
+        <v>1</v>
+      </c>
+      <c r="I68" s="48"/>
+      <c r="J68" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>3</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="10"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="48"/>
+      <c r="J69" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
@@ -2272,18 +2297,18 @@
       <c r="A71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="23" t="s">
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="61"/>
       <c r="J71" s="11" t="s">
         <v>6</v>
       </c>
@@ -2292,41 +2317,45 @@
       <c r="A72" s="10">
         <v>1</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="25">
-        <v>1</v>
-      </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="10"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="47">
+        <v>1</v>
+      </c>
+      <c r="I72" s="48"/>
+      <c r="J72" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>2</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="25">
-        <v>1</v>
-      </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="10"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="47">
+        <v>1</v>
+      </c>
+      <c r="I73" s="48"/>
+      <c r="J73" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -2342,18 +2371,18 @@
       <c r="A75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="43" t="s">
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="43"/>
+      <c r="I75" s="56"/>
       <c r="J75" s="11" t="s">
         <v>6</v>
       </c>
@@ -2362,55 +2391,61 @@
       <c r="A76" s="10">
         <v>1</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="41">
-        <v>1</v>
-      </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="10"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="51">
+        <v>1</v>
+      </c>
+      <c r="I76" s="51"/>
+      <c r="J76" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>2</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="41">
-        <v>1</v>
-      </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="10"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="51">
+        <v>1</v>
+      </c>
+      <c r="I77" s="51"/>
+      <c r="J77" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>3</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="25">
-        <v>1</v>
-      </c>
-      <c r="I78" s="26"/>
-      <c r="J78" s="13"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="47">
+        <v>1</v>
+      </c>
+      <c r="I78" s="48"/>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
@@ -2427,22 +2462,22 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49" t="s">
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="49"/>
-      <c r="J80" s="14" t="s">
+      <c r="I80" s="50"/>
+      <c r="J80" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2450,55 +2485,61 @@
       <c r="A81" s="10">
         <v>1</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="41">
-        <v>1</v>
-      </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="10"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="51">
+        <v>1</v>
+      </c>
+      <c r="I81" s="51"/>
+      <c r="J81" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>2</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="41">
-        <v>1</v>
-      </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="10"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="51">
+        <v>1</v>
+      </c>
+      <c r="I82" s="51"/>
+      <c r="J82" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>3</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="25">
-        <v>1</v>
-      </c>
-      <c r="I83" s="26"/>
-      <c r="J83" s="13"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="47">
+        <v>1</v>
+      </c>
+      <c r="I83" s="48"/>
+      <c r="J83" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2514,18 +2555,18 @@
       <c r="A86" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="44" t="s">
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="44"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="8" t="s">
         <v>6</v>
       </c>
@@ -2534,18 +2575,18 @@
       <c r="A87" s="3">
         <v>1</v>
       </c>
-      <c r="B87" s="47" t="s">
+      <c r="B87" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I87" s="45"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="22"/>
       <c r="J87" s="19">
         <v>0.5</v>
       </c>
@@ -2554,18 +2595,18 @@
       <c r="A88" s="3">
         <v>2</v>
       </c>
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I88" s="45"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="22"/>
       <c r="J88" s="19">
         <v>0.5</v>
       </c>
@@ -2574,19 +2615,21 @@
       <c r="A89" s="3">
         <v>3</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I89" s="45"/>
-      <c r="J89" s="19"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I89" s="22"/>
+      <c r="J89" s="19">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2602,18 +2645,18 @@
       <c r="A91" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="44" t="s">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="44"/>
+      <c r="I91" s="43"/>
       <c r="J91" s="8" t="s">
         <v>6</v>
       </c>
@@ -2622,18 +2665,18 @@
       <c r="A92" s="3">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="50"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I92" s="44"/>
       <c r="J92" s="3">
         <v>0.5</v>
       </c>
@@ -2642,18 +2685,18 @@
       <c r="A93" s="3">
         <v>2</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I93" s="50"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="44"/>
       <c r="J93" s="3">
         <v>0.5</v>
       </c>
@@ -2662,18 +2705,18 @@
       <c r="A94" s="3">
         <v>3</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I94" s="50"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I94" s="44"/>
       <c r="J94" s="3">
         <v>0.5</v>
       </c>
@@ -2682,18 +2725,18 @@
       <c r="A95" s="3">
         <v>4</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="52">
-        <v>1</v>
-      </c>
-      <c r="I95" s="53"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="27">
+        <v>1</v>
+      </c>
+      <c r="I95" s="28"/>
       <c r="J95" s="3">
         <v>1</v>
       </c>
@@ -2702,18 +2745,18 @@
       <c r="A96" s="3">
         <v>5</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I96" s="50"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="44"/>
       <c r="J96" s="3">
         <v>0.5</v>
       </c>
@@ -2722,18 +2765,18 @@
       <c r="A97" s="3">
         <v>6</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I97" s="50"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="44"/>
       <c r="J97" s="3">
         <v>0.5</v>
       </c>
@@ -2742,18 +2785,18 @@
       <c r="A98" s="3">
         <v>7</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I98" s="50"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="44"/>
       <c r="J98" s="3">
         <v>0.5</v>
       </c>
@@ -2762,18 +2805,18 @@
       <c r="A99" s="3">
         <v>8</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I99" s="50"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I99" s="44"/>
       <c r="J99" s="3">
         <v>0.5</v>
       </c>
@@ -2782,20 +2825,20 @@
       <c r="A100" s="3">
         <v>9</v>
       </c>
-      <c r="B100" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="50">
-        <v>1</v>
-      </c>
-      <c r="I100" s="50"/>
+      <c r="B100" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="44">
+        <v>1</v>
+      </c>
+      <c r="I100" s="44"/>
       <c r="J100" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2807,18 +2850,18 @@
       <c r="A102" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="44" t="s">
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="44"/>
+      <c r="I102" s="43"/>
       <c r="J102" s="8" t="s">
         <v>6</v>
       </c>
@@ -2827,18 +2870,18 @@
       <c r="A103" s="3">
         <v>1</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I103" s="50"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="44"/>
       <c r="J103" s="3">
         <v>0.5</v>
       </c>
@@ -2847,18 +2890,18 @@
       <c r="A104" s="3">
         <v>2</v>
       </c>
-      <c r="B104" s="47" t="s">
+      <c r="B104" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I104" s="50"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I104" s="44"/>
       <c r="J104" s="3">
         <v>0.5</v>
       </c>
@@ -2867,18 +2910,18 @@
       <c r="A105" s="3">
         <v>3</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B105" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I105" s="50"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I105" s="44"/>
       <c r="J105" s="3">
         <v>0.5</v>
       </c>
@@ -2887,18 +2930,18 @@
       <c r="A106" s="3">
         <v>4</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B106" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="50">
-        <v>1</v>
-      </c>
-      <c r="I106" s="50"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="44">
+        <v>1</v>
+      </c>
+      <c r="I106" s="44"/>
       <c r="J106" s="3">
         <v>1</v>
       </c>
@@ -2907,18 +2950,18 @@
       <c r="A107" s="3">
         <v>5</v>
       </c>
-      <c r="B107" s="47" t="s">
+      <c r="B107" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I107" s="50"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I107" s="44"/>
       <c r="J107" s="3">
         <v>0.5</v>
       </c>
@@ -2927,18 +2970,18 @@
       <c r="A108" s="3">
         <v>6</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I108" s="50"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I108" s="44"/>
       <c r="J108" s="3">
         <v>0.5</v>
       </c>
@@ -2947,18 +2990,18 @@
       <c r="A109" s="3">
         <v>7</v>
       </c>
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I109" s="50"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I109" s="44"/>
       <c r="J109" s="3">
         <v>0.5</v>
       </c>
@@ -2967,18 +3010,18 @@
       <c r="A110" s="3">
         <v>8</v>
       </c>
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I110" s="50"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I110" s="44"/>
       <c r="J110" s="3">
         <v>0.5</v>
       </c>
@@ -2987,20 +3030,20 @@
       <c r="A111" s="3">
         <v>9</v>
       </c>
-      <c r="B111" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="50">
-        <v>1</v>
-      </c>
-      <c r="I111" s="50"/>
+      <c r="B111" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="44">
+        <v>1</v>
+      </c>
+      <c r="I111" s="44"/>
       <c r="J111" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3012,18 +3055,18 @@
       <c r="A113" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="44" t="s">
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I113" s="44"/>
+      <c r="I113" s="43"/>
       <c r="J113" s="8" t="s">
         <v>6</v>
       </c>
@@ -3032,18 +3075,18 @@
       <c r="A114" s="3">
         <v>1</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I114" s="50"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I114" s="44"/>
       <c r="J114" s="3">
         <v>0.5</v>
       </c>
@@ -3052,18 +3095,18 @@
       <c r="A115" s="3">
         <v>2</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I115" s="50"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I115" s="44"/>
       <c r="J115" s="3">
         <v>0.5</v>
       </c>
@@ -3072,18 +3115,18 @@
       <c r="A116" s="3">
         <v>3</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="50">
-        <v>1</v>
-      </c>
-      <c r="I116" s="50"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="44">
+        <v>1</v>
+      </c>
+      <c r="I116" s="44"/>
       <c r="J116" s="3">
         <v>1</v>
       </c>
@@ -3092,18 +3135,18 @@
       <c r="A117" s="3">
         <v>4</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C117" s="54"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="54"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="50">
-        <v>1</v>
-      </c>
-      <c r="I117" s="50"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="44">
+        <v>1</v>
+      </c>
+      <c r="I117" s="44"/>
       <c r="J117" s="3">
         <v>1</v>
       </c>
@@ -3112,18 +3155,18 @@
       <c r="A118" s="3">
         <v>5</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="54"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I118" s="50"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="44"/>
       <c r="J118" s="3">
         <v>0.5</v>
       </c>
@@ -3132,18 +3175,18 @@
       <c r="A119" s="3">
         <v>6</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I119" s="50"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I119" s="44"/>
       <c r="J119" s="3">
         <v>0.5</v>
       </c>
@@ -3152,18 +3195,18 @@
       <c r="A120" s="3">
         <v>7</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I120" s="50"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I120" s="44"/>
       <c r="J120" s="3">
         <v>0.5</v>
       </c>
@@ -3172,18 +3215,18 @@
       <c r="A121" s="3">
         <v>8</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I121" s="50"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I121" s="44"/>
       <c r="J121" s="3">
         <v>0.5</v>
       </c>
@@ -3192,18 +3235,18 @@
       <c r="A122" s="3">
         <v>9</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I122" s="50"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I122" s="44"/>
       <c r="J122" s="3">
         <v>0.5</v>
       </c>
@@ -3217,18 +3260,18 @@
       <c r="A124" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="44" t="s">
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I124" s="44"/>
+      <c r="I124" s="43"/>
       <c r="J124" s="8" t="s">
         <v>6</v>
       </c>
@@ -3237,18 +3280,18 @@
       <c r="A125" s="3">
         <v>1</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I125" s="50"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I125" s="44"/>
       <c r="J125" s="3">
         <v>0.5</v>
       </c>
@@ -3257,18 +3300,18 @@
       <c r="A126" s="3">
         <v>2</v>
       </c>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="50">
-        <v>1</v>
-      </c>
-      <c r="I126" s="50"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="44">
+        <v>1</v>
+      </c>
+      <c r="I126" s="44"/>
       <c r="J126" s="3">
         <v>1</v>
       </c>
@@ -3277,18 +3320,18 @@
       <c r="A127" s="3">
         <v>3</v>
       </c>
-      <c r="B127" s="47" t="s">
+      <c r="B127" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="50">
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="44">
         <v>1.5</v>
       </c>
-      <c r="I127" s="50"/>
+      <c r="I127" s="44"/>
       <c r="J127" s="3">
         <v>1.5</v>
       </c>
@@ -3297,19 +3340,21 @@
       <c r="A128" s="3">
         <v>4</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B128" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I128" s="50"/>
-      <c r="J128" s="3"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I128" s="44"/>
+      <c r="J128" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -3326,18 +3371,18 @@
       <c r="A130" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="44" t="s">
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I130" s="44"/>
+      <c r="I130" s="43"/>
       <c r="J130" s="8" t="s">
         <v>6</v>
       </c>
@@ -3346,18 +3391,18 @@
       <c r="A131" s="3">
         <v>1</v>
       </c>
-      <c r="B131" s="47" t="s">
+      <c r="B131" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I131" s="45"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I131" s="22"/>
       <c r="J131" s="3">
         <v>0.5</v>
       </c>
@@ -3366,18 +3411,18 @@
       <c r="A132" s="3">
         <v>2</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B132" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I132" s="45"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I132" s="22"/>
       <c r="J132" s="3">
         <v>0.5</v>
       </c>
@@ -3386,18 +3431,18 @@
       <c r="A133" s="3">
         <v>3</v>
       </c>
-      <c r="B133" s="47" t="s">
+      <c r="B133" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I133" s="56"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I133" s="21"/>
       <c r="J133" s="3">
         <v>0.5</v>
       </c>
@@ -3406,36 +3451,38 @@
       <c r="A134" s="3">
         <v>4</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I134" s="56"/>
-      <c r="J134" s="3"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>5</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C135" s="47"/>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I135" s="45"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I135" s="22"/>
       <c r="J135" s="3">
         <v>0.5</v>
       </c>
@@ -3444,18 +3491,18 @@
       <c r="A136" s="3">
         <v>6</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I136" s="45"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I136" s="22"/>
       <c r="J136" s="3">
         <v>0.5</v>
       </c>
@@ -3464,18 +3511,18 @@
       <c r="A137" s="3">
         <v>7</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B137" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I137" s="45"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I137" s="22"/>
       <c r="J137" s="3">
         <v>0.5</v>
       </c>
@@ -3484,18 +3531,18 @@
       <c r="A138" s="3">
         <v>8</v>
       </c>
-      <c r="B138" s="47" t="s">
+      <c r="B138" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I138" s="45"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I138" s="22"/>
       <c r="J138" s="3">
         <v>0.5</v>
       </c>
@@ -3504,20 +3551,20 @@
       <c r="A139" s="3">
         <v>9</v>
       </c>
-      <c r="B139" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I139" s="45"/>
+      <c r="B139" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I139" s="22"/>
       <c r="J139" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3529,18 +3576,18 @@
       <c r="A141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="46"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="44" t="s">
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I141" s="44"/>
+      <c r="I141" s="43"/>
       <c r="J141" s="8" t="s">
         <v>6</v>
       </c>
@@ -3549,18 +3596,18 @@
       <c r="A142" s="3">
         <v>1</v>
       </c>
-      <c r="B142" s="47" t="s">
+      <c r="B142" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="47"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="47"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I142" s="50"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I142" s="44"/>
       <c r="J142" s="3">
         <v>0.5</v>
       </c>
@@ -3569,18 +3616,18 @@
       <c r="A143" s="3">
         <v>2</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B143" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I143" s="50"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I143" s="44"/>
       <c r="J143" s="3">
         <v>0.5</v>
       </c>
@@ -3589,18 +3636,18 @@
       <c r="A144" s="3">
         <v>3</v>
       </c>
-      <c r="B144" s="47" t="s">
+      <c r="B144" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C144" s="47"/>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="50">
-        <v>1</v>
-      </c>
-      <c r="I144" s="50"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="44">
+        <v>1</v>
+      </c>
+      <c r="I144" s="44"/>
       <c r="J144" s="3">
         <v>1</v>
       </c>
@@ -3609,18 +3656,18 @@
       <c r="A145" s="3">
         <v>4</v>
       </c>
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C145" s="47"/>
-      <c r="D145" s="47"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="50">
-        <v>1</v>
-      </c>
-      <c r="I145" s="50"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="44">
+        <v>1</v>
+      </c>
+      <c r="I145" s="44"/>
       <c r="J145" s="3">
         <v>1</v>
       </c>
@@ -3629,18 +3676,18 @@
       <c r="A146" s="3">
         <v>5</v>
       </c>
-      <c r="B146" s="47" t="s">
+      <c r="B146" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C146" s="47"/>
-      <c r="D146" s="47"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I146" s="50"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I146" s="44"/>
       <c r="J146" s="3">
         <v>0.5</v>
       </c>
@@ -3649,18 +3696,18 @@
       <c r="A147" s="3">
         <v>6</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C147" s="47"/>
-      <c r="D147" s="47"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I147" s="50"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I147" s="44"/>
       <c r="J147" s="3">
         <v>0.5</v>
       </c>
@@ -3669,18 +3716,18 @@
       <c r="A148" s="3">
         <v>7</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C148" s="47"/>
-      <c r="D148" s="47"/>
-      <c r="E148" s="47"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I148" s="50"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I148" s="44"/>
       <c r="J148" s="3">
         <v>0.5</v>
       </c>
@@ -3689,18 +3736,18 @@
       <c r="A149" s="3">
         <v>8</v>
       </c>
-      <c r="B149" s="47" t="s">
+      <c r="B149" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C149" s="47"/>
-      <c r="D149" s="47"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="47"/>
-      <c r="G149" s="47"/>
-      <c r="H149" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I149" s="50"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I149" s="44"/>
       <c r="J149" s="3">
         <v>0.5</v>
       </c>
@@ -3709,18 +3756,18 @@
       <c r="A150" s="3">
         <v>9</v>
       </c>
-      <c r="B150" s="47" t="s">
+      <c r="B150" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I150" s="50"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I150" s="44"/>
       <c r="J150" s="3">
         <v>0.5</v>
       </c>
@@ -3734,18 +3781,18 @@
       <c r="A152" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="46" t="s">
+      <c r="B152" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="44" t="s">
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I152" s="44"/>
+      <c r="I152" s="43"/>
       <c r="J152" s="8" t="s">
         <v>6</v>
       </c>
@@ -3754,18 +3801,18 @@
       <c r="A153" s="3">
         <v>1</v>
       </c>
-      <c r="B153" s="47" t="s">
+      <c r="B153" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C153" s="47"/>
-      <c r="D153" s="47"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I153" s="50"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I153" s="44"/>
       <c r="J153" s="3">
         <v>0.5</v>
       </c>
@@ -3774,18 +3821,18 @@
       <c r="A154" s="3">
         <v>2</v>
       </c>
-      <c r="B154" s="47" t="s">
+      <c r="B154" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C154" s="47"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I154" s="50"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I154" s="44"/>
       <c r="J154" s="3">
         <v>0.5</v>
       </c>
@@ -3794,18 +3841,18 @@
       <c r="A155" s="3">
         <v>3</v>
       </c>
-      <c r="B155" s="47" t="s">
+      <c r="B155" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C155" s="47"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="50">
-        <v>1</v>
-      </c>
-      <c r="I155" s="50"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="44">
+        <v>1</v>
+      </c>
+      <c r="I155" s="44"/>
       <c r="J155" s="3">
         <v>1</v>
       </c>
@@ -3814,36 +3861,38 @@
       <c r="A156" s="3">
         <v>4</v>
       </c>
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C156" s="47"/>
-      <c r="D156" s="47"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="50">
-        <v>1</v>
-      </c>
-      <c r="I156" s="50"/>
-      <c r="J156" s="3"/>
+      <c r="C156" s="39"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="39"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="44">
+        <v>1</v>
+      </c>
+      <c r="I156" s="44"/>
+      <c r="J156" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>5</v>
       </c>
-      <c r="B157" s="47" t="s">
+      <c r="B157" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C157" s="47"/>
-      <c r="D157" s="47"/>
-      <c r="E157" s="47"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I157" s="50"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="39"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I157" s="44"/>
       <c r="J157" s="3">
         <v>0.5</v>
       </c>
@@ -3852,18 +3901,18 @@
       <c r="A158" s="3">
         <v>6</v>
       </c>
-      <c r="B158" s="47" t="s">
+      <c r="B158" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I158" s="50"/>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I158" s="44"/>
       <c r="J158" s="3">
         <v>0.5</v>
       </c>
@@ -3872,18 +3921,18 @@
       <c r="A159" s="3">
         <v>7</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I159" s="50"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
+      <c r="F159" s="39"/>
+      <c r="G159" s="39"/>
+      <c r="H159" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I159" s="44"/>
       <c r="J159" s="3">
         <v>0.5</v>
       </c>
@@ -3892,18 +3941,18 @@
       <c r="A160" s="3">
         <v>8</v>
       </c>
-      <c r="B160" s="47" t="s">
+      <c r="B160" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C160" s="47"/>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I160" s="50"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I160" s="44"/>
       <c r="J160" s="3">
         <v>0.5</v>
       </c>
@@ -3912,19 +3961,21 @@
       <c r="A161" s="3">
         <v>9</v>
       </c>
-      <c r="B161" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C161" s="47"/>
-      <c r="D161" s="47"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="50">
-        <v>1</v>
-      </c>
-      <c r="I161" s="50"/>
-      <c r="J161" s="3"/>
+      <c r="B161" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="44">
+        <v>1</v>
+      </c>
+      <c r="I161" s="44"/>
+      <c r="J161" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3935,18 +3986,18 @@
       <c r="A163" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="46"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="57" t="s">
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I163" s="58"/>
+      <c r="I163" s="30"/>
       <c r="J163" s="8" t="s">
         <v>6</v>
       </c>
@@ -3955,18 +4006,18 @@
       <c r="A164" s="3">
         <v>1</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B164" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C164" s="47"/>
-      <c r="D164" s="47"/>
-      <c r="E164" s="47"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I164" s="56"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I164" s="21"/>
       <c r="J164" s="3">
         <v>0.5</v>
       </c>
@@ -3975,18 +4026,18 @@
       <c r="A165" s="3">
         <v>2</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B165" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C165" s="47"/>
-      <c r="D165" s="47"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="47"/>
-      <c r="H165" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I165" s="56"/>
+      <c r="C165" s="39"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I165" s="21"/>
       <c r="J165" s="3">
         <v>0.5</v>
       </c>
@@ -3995,18 +4046,18 @@
       <c r="A166" s="3">
         <v>3</v>
       </c>
-      <c r="B166" s="47" t="s">
+      <c r="B166" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C166" s="47"/>
-      <c r="D166" s="47"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="55">
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="20">
         <v>1.5</v>
       </c>
-      <c r="I166" s="56"/>
+      <c r="I166" s="21"/>
       <c r="J166" s="3">
         <v>1.5</v>
       </c>
@@ -4015,18 +4066,18 @@
       <c r="A167" s="3">
         <v>4</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B167" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C167" s="47"/>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I167" s="56"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I167" s="21"/>
       <c r="J167" s="3">
         <v>0.5</v>
       </c>
@@ -4035,18 +4086,18 @@
       <c r="A168" s="3">
         <v>5</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="47"/>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I168" s="56"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I168" s="21"/>
       <c r="J168" s="3">
         <v>0.5</v>
       </c>
@@ -4055,18 +4106,18 @@
       <c r="A169" s="3">
         <v>6</v>
       </c>
-      <c r="B169" s="47" t="s">
+      <c r="B169" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C169" s="47"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I169" s="56"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="39"/>
+      <c r="G169" s="39"/>
+      <c r="H169" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I169" s="21"/>
       <c r="J169" s="3">
         <v>0.5</v>
       </c>
@@ -4075,18 +4126,18 @@
       <c r="A170" s="3">
         <v>7</v>
       </c>
-      <c r="B170" s="47" t="s">
+      <c r="B170" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C170" s="47"/>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I170" s="56"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I170" s="21"/>
       <c r="J170" s="3">
         <v>0.5</v>
       </c>
@@ -4095,18 +4146,18 @@
       <c r="A171" s="3">
         <v>8</v>
       </c>
-      <c r="B171" s="47" t="s">
+      <c r="B171" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C171" s="47"/>
-      <c r="D171" s="47"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="47"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I171" s="56"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I171" s="21"/>
       <c r="J171" s="3">
         <v>0.5</v>
       </c>
@@ -4115,18 +4166,18 @@
       <c r="A172" s="3">
         <v>9</v>
       </c>
-      <c r="B172" s="47" t="s">
+      <c r="B172" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C172" s="47"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="47"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I172" s="56"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I172" s="21"/>
       <c r="J172" s="3">
         <v>0.5</v>
       </c>
@@ -4140,18 +4191,18 @@
       <c r="A174" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="46"/>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="57" t="s">
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I174" s="58"/>
+      <c r="I174" s="30"/>
       <c r="J174" s="8" t="s">
         <v>6</v>
       </c>
@@ -4160,18 +4211,18 @@
       <c r="A175" s="3">
         <v>1</v>
       </c>
-      <c r="B175" s="54" t="s">
+      <c r="B175" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I175" s="53"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I175" s="28"/>
       <c r="J175" s="3">
         <v>0.5</v>
       </c>
@@ -4180,18 +4231,18 @@
       <c r="A176" s="3">
         <v>2</v>
       </c>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I176" s="53"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="41"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I176" s="28"/>
       <c r="J176" s="3">
         <v>0.5</v>
       </c>
@@ -4200,18 +4251,18 @@
       <c r="A177" s="3">
         <v>3</v>
       </c>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="52">
-        <v>1</v>
-      </c>
-      <c r="I177" s="53"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="41"/>
+      <c r="G177" s="41"/>
+      <c r="H177" s="27">
+        <v>1</v>
+      </c>
+      <c r="I177" s="28"/>
       <c r="J177" s="3">
         <v>1</v>
       </c>
@@ -4220,18 +4271,18 @@
       <c r="A178" s="3">
         <v>4</v>
       </c>
-      <c r="B178" s="54" t="s">
+      <c r="B178" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C178" s="54"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="52">
-        <v>1</v>
-      </c>
-      <c r="I178" s="53"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="41"/>
+      <c r="E178" s="41"/>
+      <c r="F178" s="41"/>
+      <c r="G178" s="41"/>
+      <c r="H178" s="27">
+        <v>1</v>
+      </c>
+      <c r="I178" s="28"/>
       <c r="J178" s="3">
         <v>1</v>
       </c>
@@ -4240,18 +4291,18 @@
       <c r="A179" s="3">
         <v>5</v>
       </c>
-      <c r="B179" s="54" t="s">
+      <c r="B179" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I179" s="53"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
+      <c r="G179" s="41"/>
+      <c r="H179" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I179" s="28"/>
       <c r="J179" s="3">
         <v>0.5</v>
       </c>
@@ -4260,18 +4311,18 @@
       <c r="A180" s="3">
         <v>6</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I180" s="53"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="41"/>
+      <c r="H180" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I180" s="28"/>
       <c r="J180" s="3">
         <v>0.5</v>
       </c>
@@ -4280,18 +4331,18 @@
       <c r="A181" s="3">
         <v>7</v>
       </c>
-      <c r="B181" s="54" t="s">
+      <c r="B181" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C181" s="54"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I181" s="53"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="41"/>
+      <c r="G181" s="41"/>
+      <c r="H181" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I181" s="28"/>
       <c r="J181" s="3">
         <v>0.5</v>
       </c>
@@ -4300,18 +4351,18 @@
       <c r="A182" s="3">
         <v>8</v>
       </c>
-      <c r="B182" s="54" t="s">
+      <c r="B182" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C182" s="54"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I182" s="53"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="41"/>
+      <c r="G182" s="41"/>
+      <c r="H182" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I182" s="28"/>
       <c r="J182" s="3">
         <v>0.5</v>
       </c>
@@ -4320,18 +4371,18 @@
       <c r="A183" s="3">
         <v>9</v>
       </c>
-      <c r="B183" s="54" t="s">
+      <c r="B183" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="I183" s="53"/>
+      <c r="C183" s="41"/>
+      <c r="D183" s="41"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="41"/>
+      <c r="G183" s="41"/>
+      <c r="H183" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I183" s="28"/>
       <c r="J183" s="3">
         <v>0.5</v>
       </c>
@@ -4345,18 +4396,18 @@
       <c r="A185" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="46"/>
-      <c r="D185" s="46"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="46"/>
-      <c r="H185" s="44" t="s">
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I185" s="44"/>
+      <c r="I185" s="43"/>
       <c r="J185" s="8" t="s">
         <v>6</v>
       </c>
@@ -4365,18 +4416,18 @@
       <c r="A186" s="3">
         <v>1</v>
       </c>
-      <c r="B186" s="47" t="s">
+      <c r="B186" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C186" s="47"/>
-      <c r="D186" s="47"/>
-      <c r="E186" s="47"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I186" s="45"/>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I186" s="22"/>
       <c r="J186" s="3">
         <v>0.5</v>
       </c>
@@ -4385,18 +4436,18 @@
       <c r="A187" s="3">
         <v>2</v>
       </c>
-      <c r="B187" s="47" t="s">
+      <c r="B187" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C187" s="47"/>
-      <c r="D187" s="47"/>
-      <c r="E187" s="47"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I187" s="45"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I187" s="22"/>
       <c r="J187" s="3">
         <v>0.5</v>
       </c>
@@ -4405,18 +4456,18 @@
       <c r="A188" s="3">
         <v>3</v>
       </c>
-      <c r="B188" s="47" t="s">
+      <c r="B188" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C188" s="47"/>
-      <c r="D188" s="47"/>
-      <c r="E188" s="47"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="47"/>
-      <c r="H188" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I188" s="45"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="39"/>
+      <c r="G188" s="39"/>
+      <c r="H188" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I188" s="22"/>
       <c r="J188" s="3">
         <v>0.5</v>
       </c>
@@ -4425,18 +4476,18 @@
       <c r="A189" s="3">
         <v>4</v>
       </c>
-      <c r="B189" s="47" t="s">
+      <c r="B189" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C189" s="47"/>
-      <c r="D189" s="47"/>
-      <c r="E189" s="47"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="47"/>
-      <c r="H189" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I189" s="45"/>
+      <c r="C189" s="39"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
+      <c r="F189" s="39"/>
+      <c r="G189" s="39"/>
+      <c r="H189" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I189" s="22"/>
       <c r="J189" s="3">
         <v>0.5</v>
       </c>
@@ -4445,18 +4496,18 @@
       <c r="A190" s="3">
         <v>5</v>
       </c>
-      <c r="B190" s="47" t="s">
+      <c r="B190" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C190" s="47"/>
-      <c r="D190" s="47"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-      <c r="H190" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I190" s="45"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="39"/>
+      <c r="G190" s="39"/>
+      <c r="H190" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I190" s="22"/>
       <c r="J190" s="3">
         <v>0.5</v>
       </c>
@@ -4465,18 +4516,18 @@
       <c r="A191" s="3">
         <v>6</v>
       </c>
-      <c r="B191" s="47" t="s">
+      <c r="B191" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C191" s="47"/>
-      <c r="D191" s="47"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="47"/>
-      <c r="H191" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I191" s="45"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="39"/>
+      <c r="G191" s="39"/>
+      <c r="H191" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I191" s="22"/>
       <c r="J191" s="3">
         <v>0.5</v>
       </c>
@@ -4485,18 +4536,18 @@
       <c r="A192" s="3">
         <v>7</v>
       </c>
-      <c r="B192" s="47" t="s">
+      <c r="B192" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C192" s="47"/>
-      <c r="D192" s="47"/>
-      <c r="E192" s="47"/>
-      <c r="F192" s="47"/>
-      <c r="G192" s="47"/>
-      <c r="H192" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I192" s="45"/>
+      <c r="C192" s="39"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="39"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I192" s="22"/>
       <c r="J192" s="3">
         <v>0.5</v>
       </c>
@@ -4505,18 +4556,18 @@
       <c r="A193" s="3">
         <v>8</v>
       </c>
-      <c r="B193" s="47" t="s">
+      <c r="B193" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C193" s="47"/>
-      <c r="D193" s="47"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="47"/>
-      <c r="G193" s="47"/>
-      <c r="H193" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I193" s="45"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="39"/>
+      <c r="G193" s="39"/>
+      <c r="H193" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I193" s="22"/>
       <c r="J193" s="3">
         <v>0.5</v>
       </c>
@@ -4525,18 +4576,18 @@
       <c r="A194" s="3">
         <v>9</v>
       </c>
-      <c r="B194" s="47" t="s">
+      <c r="B194" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C194" s="47"/>
-      <c r="D194" s="47"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="47"/>
-      <c r="G194" s="47"/>
-      <c r="H194" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I194" s="45"/>
+      <c r="C194" s="39"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="39"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I194" s="22"/>
       <c r="J194" s="3">
         <v>0.5</v>
       </c>
@@ -4547,22 +4598,22 @@
       </c>
     </row>
     <row r="196" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A196" s="15" t="s">
+      <c r="A196" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="59" t="s">
+      <c r="B196" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C196" s="59"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="70" t="s">
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="40"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I196" s="70"/>
-      <c r="J196" s="16" t="s">
+      <c r="I196" s="23"/>
+      <c r="J196" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4570,18 +4621,18 @@
       <c r="A197" s="3">
         <v>1</v>
       </c>
-      <c r="B197" s="47" t="s">
+      <c r="B197" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C197" s="47"/>
-      <c r="D197" s="47"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="47"/>
-      <c r="H197" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I197" s="45"/>
+      <c r="C197" s="39"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I197" s="22"/>
       <c r="J197" s="3">
         <v>0.5</v>
       </c>
@@ -4590,18 +4641,18 @@
       <c r="A198" s="3">
         <v>2</v>
       </c>
-      <c r="B198" s="47" t="s">
+      <c r="B198" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C198" s="47"/>
-      <c r="D198" s="47"/>
-      <c r="E198" s="47"/>
-      <c r="F198" s="47"/>
-      <c r="G198" s="47"/>
-      <c r="H198" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I198" s="45"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
+      <c r="G198" s="39"/>
+      <c r="H198" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I198" s="22"/>
       <c r="J198" s="3">
         <v>0.5</v>
       </c>
@@ -4610,18 +4661,18 @@
       <c r="A199" s="3">
         <v>3</v>
       </c>
-      <c r="B199" s="47" t="s">
+      <c r="B199" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C199" s="47"/>
-      <c r="D199" s="47"/>
-      <c r="E199" s="47"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="47"/>
-      <c r="H199" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I199" s="45"/>
+      <c r="C199" s="39"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="39"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I199" s="22"/>
       <c r="J199" s="3">
         <v>0.5</v>
       </c>
@@ -4630,18 +4681,18 @@
       <c r="A200" s="3">
         <v>4</v>
       </c>
-      <c r="B200" s="47" t="s">
+      <c r="B200" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C200" s="47"/>
-      <c r="D200" s="47"/>
-      <c r="E200" s="47"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I200" s="45"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I200" s="22"/>
       <c r="J200" s="3">
         <v>0.5</v>
       </c>
@@ -4650,18 +4701,18 @@
       <c r="A201" s="3">
         <v>5</v>
       </c>
-      <c r="B201" s="47" t="s">
+      <c r="B201" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C201" s="47"/>
-      <c r="D201" s="47"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I201" s="45"/>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="39"/>
+      <c r="H201" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I201" s="22"/>
       <c r="J201" s="3">
         <v>0.5</v>
       </c>
@@ -4670,18 +4721,18 @@
       <c r="A202" s="3">
         <v>6</v>
       </c>
-      <c r="B202" s="47" t="s">
+      <c r="B202" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C202" s="47"/>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I202" s="45"/>
+      <c r="C202" s="39"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+      <c r="F202" s="39"/>
+      <c r="G202" s="39"/>
+      <c r="H202" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I202" s="22"/>
       <c r="J202" s="3">
         <v>0.5</v>
       </c>
@@ -4690,18 +4741,18 @@
       <c r="A203" s="3">
         <v>7</v>
       </c>
-      <c r="B203" s="47" t="s">
+      <c r="B203" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C203" s="47"/>
-      <c r="D203" s="47"/>
-      <c r="E203" s="47"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="47"/>
-      <c r="H203" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I203" s="45"/>
+      <c r="C203" s="39"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I203" s="22"/>
       <c r="J203" s="3">
         <v>0.5</v>
       </c>
@@ -4710,18 +4761,18 @@
       <c r="A204" s="3">
         <v>8</v>
       </c>
-      <c r="B204" s="47" t="s">
+      <c r="B204" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C204" s="47"/>
-      <c r="D204" s="47"/>
-      <c r="E204" s="47"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="47"/>
-      <c r="H204" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I204" s="45"/>
+      <c r="C204" s="39"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
+      <c r="F204" s="39"/>
+      <c r="G204" s="39"/>
+      <c r="H204" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I204" s="22"/>
       <c r="J204" s="3">
         <v>0.5</v>
       </c>
@@ -4730,18 +4781,18 @@
       <c r="A205" s="3">
         <v>9</v>
       </c>
-      <c r="B205" s="47" t="s">
+      <c r="B205" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C205" s="47"/>
-      <c r="D205" s="47"/>
-      <c r="E205" s="47"/>
-      <c r="F205" s="47"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="I205" s="45"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="39"/>
+      <c r="H205" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I205" s="22"/>
       <c r="J205" s="3">
         <v>0.5</v>
       </c>
@@ -4755,18 +4806,18 @@
       <c r="A207" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B207" s="65" t="s">
+      <c r="B207" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C207" s="66"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="67"/>
-      <c r="H207" s="57" t="s">
+      <c r="C207" s="35"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="35"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I207" s="58"/>
+      <c r="I207" s="30"/>
       <c r="J207" s="8" t="s">
         <v>6</v>
       </c>
@@ -4775,18 +4826,18 @@
       <c r="A208" s="3">
         <v>1</v>
       </c>
-      <c r="B208" s="62" t="s">
+      <c r="B208" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I208" s="69"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I208" s="38"/>
       <c r="J208" s="3">
         <v>0.5</v>
       </c>
@@ -4795,18 +4846,18 @@
       <c r="A209" s="3">
         <v>2</v>
       </c>
-      <c r="B209" s="62" t="s">
+      <c r="B209" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="63"/>
-      <c r="F209" s="63"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I209" s="56"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I209" s="21"/>
       <c r="J209" s="3">
         <v>0.5</v>
       </c>
@@ -4815,18 +4866,18 @@
       <c r="A210" s="3">
         <v>3</v>
       </c>
-      <c r="B210" s="62" t="s">
+      <c r="B210" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I210" s="56"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I210" s="21"/>
       <c r="J210" s="3">
         <v>0.5</v>
       </c>
@@ -4835,18 +4886,18 @@
       <c r="A211" s="3">
         <v>4</v>
       </c>
-      <c r="B211" s="62" t="s">
+      <c r="B211" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C211" s="63"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="63"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I211" s="56"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I211" s="21"/>
       <c r="J211" s="3">
         <v>0.5</v>
       </c>
@@ -4855,18 +4906,18 @@
       <c r="A212" s="3">
         <v>5</v>
       </c>
-      <c r="B212" s="62" t="s">
+      <c r="B212" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
-      <c r="F212" s="63"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I212" s="56"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I212" s="21"/>
       <c r="J212" s="3">
         <v>0.5</v>
       </c>
@@ -4875,18 +4926,18 @@
       <c r="A213" s="3">
         <v>6</v>
       </c>
-      <c r="B213" s="62" t="s">
+      <c r="B213" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I213" s="56"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I213" s="21"/>
       <c r="J213" s="3">
         <v>0.5</v>
       </c>
@@ -4895,18 +4946,18 @@
       <c r="A214" s="3">
         <v>7</v>
       </c>
-      <c r="B214" s="62" t="s">
+      <c r="B214" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C214" s="63"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="63"/>
-      <c r="F214" s="63"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I214" s="56"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I214" s="21"/>
       <c r="J214" s="3">
         <v>0.5</v>
       </c>
@@ -4915,71 +4966,369 @@
       <c r="A215" s="3">
         <v>8</v>
       </c>
-      <c r="B215" s="62" t="s">
+      <c r="B215" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C215" s="63"/>
-      <c r="D215" s="63"/>
-      <c r="E215" s="63"/>
-      <c r="F215" s="63"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="I215" s="56"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I215" s="21"/>
       <c r="J215" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="60" t="s">
+      <c r="A217" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="17"/>
-      <c r="F217" s="17"/>
-      <c r="G217" s="60" t="s">
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="25"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G221" s="61" t="s">
+      <c r="G221" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="H221" s="61"/>
-      <c r="I221" s="61"/>
-      <c r="J221" s="61"/>
+      <c r="H221" s="26"/>
+      <c r="I221" s="26"/>
+      <c r="J221" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="368">
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="G6:I8"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B180:G180"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B186:G186"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:G200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B202:G202"/>
+    <mergeCell ref="B203:G203"/>
+    <mergeCell ref="B204:G204"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="G217:J217"/>
     <mergeCell ref="G221:J221"/>
@@ -5004,329 +5353,31 @@
     <mergeCell ref="H207:I207"/>
     <mergeCell ref="H209:I209"/>
     <mergeCell ref="H208:I208"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:G200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B202:G202"/>
-    <mergeCell ref="B203:G203"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="B196:G196"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B186:G186"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="G6:I8"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H194:I194"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>